--- a/DevSheet.xlsx
+++ b/DevSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LukeZurg22_Gaming\source\repos\SolKom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258C1AA2-9FE4-4120-AF8A-E1AAB134529C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B15BFB1-7823-46CC-B8C4-F8CDF49C660B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="617" activeTab="1" xr2:uid="{A2486F3D-2BC6-46DF-AFC7-9609AD0D2A4F}"/>
   </bookViews>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="962">
   <si>
     <t>ANARCHY</t>
   </si>
@@ -3038,6 +3038,9 @@
   </si>
   <si>
     <t>Gravity Well</t>
+  </si>
+  <si>
+    <t>Metalhead</t>
   </si>
 </sst>
 </file>
@@ -3193,15 +3196,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4421,16 +4426,13 @@
   <dimension ref="A1:V402"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="8.7265625" style="18"/>
-    <col min="7" max="7" width="8.7265625" style="18" customWidth="1"/>
-    <col min="8" max="21" width="8.7265625" style="18"/>
-    <col min="22" max="22" width="8.7265625" style="18" customWidth="1"/>
-    <col min="23" max="16384" width="8.7265625" style="18"/>
+    <col min="7" max="7" width="8.7265625" customWidth="1"/>
+    <col min="22" max="22" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -4502,2588 +4504,2591 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" t="s">
         <v>747</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" t="s">
         <v>731</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" t="s">
         <v>957</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>911</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>658</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" t="s">
         <v>622</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>760</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" t="s">
         <v>636</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" t="s">
         <v>616</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" t="s">
         <v>738</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" t="s">
         <v>607</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" t="s">
         <v>664</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" t="s">
         <v>769</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" t="s">
         <v>709</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" t="s">
         <v>720</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" t="s">
         <v>690</v>
       </c>
-      <c r="U2" s="21">
+      <c r="U2" s="20">
         <v>13</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="V2" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" t="s">
         <v>748</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" t="s">
         <v>732</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" t="s">
         <v>958</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>404</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>913</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" t="s">
         <v>655</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" t="s">
         <v>761</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" t="s">
         <v>682</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" t="s">
         <v>633</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" t="s">
         <v>740</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" t="s">
         <v>608</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" t="s">
         <v>605</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" t="s">
         <v>770</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" t="s">
         <v>715</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" t="s">
         <v>717</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" t="s">
         <v>689</v>
       </c>
-      <c r="U3" s="21" t="s">
+      <c r="U3" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="V3" s="18" t="s">
+      <c r="V3" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C4" s="18">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" t="s">
         <v>959</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" t="s">
         <v>249</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>887</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>624</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" t="s">
         <v>627</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="18" t="s">
         <v>762</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" t="s">
         <v>674</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" t="s">
         <v>635</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" t="s">
         <v>739</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" t="s">
         <v>609</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" t="s">
         <v>701</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" t="s">
         <v>771</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" t="s">
         <v>712</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="R4" t="s">
         <v>726</v>
       </c>
-      <c r="T4" s="18" t="s">
+      <c r="T4" t="s">
         <v>641</v>
       </c>
-      <c r="U4" s="21" t="s">
+      <c r="U4" s="20" t="s">
         <v>638</v>
       </c>
-      <c r="V4" s="18" t="s">
+      <c r="V4" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C5" s="18">
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" t="s">
         <v>960</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>949</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>631</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" t="s">
         <v>630</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="18" t="s">
         <v>763</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" t="s">
         <v>669</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" t="s">
         <v>637</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" t="s">
         <v>741</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="N5" t="s">
         <v>610</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="O5" t="s">
         <v>704</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="P5" t="s">
         <v>773</v>
       </c>
-      <c r="Q5" s="18" t="s">
+      <c r="Q5" t="s">
         <v>714</v>
       </c>
-      <c r="R5" s="18" t="s">
+      <c r="R5" t="s">
         <v>728</v>
       </c>
-      <c r="T5" s="18" t="s">
+      <c r="T5" t="s">
         <v>698</v>
       </c>
-      <c r="U5" s="21" t="s">
+      <c r="U5" s="20" t="s">
         <v>642</v>
       </c>
-      <c r="V5" s="18" t="s">
+      <c r="V5" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C6" s="18">
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>892</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="18" t="s">
         <v>706</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" t="s">
         <v>620</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="18" t="s">
         <v>764</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" t="s">
         <v>634</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" t="s">
         <v>675</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" t="s">
         <v>742</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="N6" t="s">
         <v>611</v>
       </c>
-      <c r="O6" s="18" t="s">
+      <c r="O6" t="s">
         <v>606</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="P6" t="s">
         <v>774</v>
       </c>
-      <c r="Q6" s="18" t="s">
+      <c r="Q6" t="s">
         <v>713</v>
       </c>
-      <c r="R6" s="18" t="s">
+      <c r="R6" t="s">
         <v>718</v>
       </c>
-      <c r="T6" s="18" t="s">
+      <c r="T6" t="s">
         <v>639</v>
       </c>
-      <c r="U6" s="21" t="s">
+      <c r="U6" s="20" t="s">
         <v>686</v>
       </c>
-      <c r="V6" s="18" t="s">
+      <c r="V6" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C7" s="18">
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>891</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
         <v>629</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="18" t="s">
         <v>590</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="18" t="s">
         <v>765</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" t="s">
         <v>677</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" t="s">
         <v>676</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="M7" t="s">
         <v>743</v>
       </c>
-      <c r="N7" s="18" t="s">
+      <c r="N7" t="s">
         <v>612</v>
       </c>
-      <c r="O7" s="18" t="s">
+      <c r="O7" t="s">
         <v>667</v>
       </c>
-      <c r="Q7" s="18" t="s">
+      <c r="Q7" t="s">
         <v>710</v>
       </c>
-      <c r="R7" s="18" t="s">
+      <c r="R7" t="s">
         <v>721</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="T7" t="s">
         <v>687</v>
       </c>
-      <c r="U7" s="21" t="s">
+      <c r="U7" s="20" t="s">
         <v>691</v>
       </c>
-      <c r="V7" s="18" t="s">
+      <c r="V7" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C8" s="18">
+      <c r="C8">
         <v>6</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>934</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="18" t="s">
         <v>623</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" t="s">
         <v>626</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="18" t="s">
         <v>766</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" t="s">
         <v>683</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" t="s">
         <v>678</v>
       </c>
-      <c r="N8" s="18" t="s">
+      <c r="N8" t="s">
         <v>700</v>
       </c>
-      <c r="O8" s="18" t="s">
+      <c r="O8" t="s">
         <v>665</v>
       </c>
-      <c r="Q8" s="18" t="s">
+      <c r="Q8" t="s">
         <v>707</v>
       </c>
-      <c r="R8" s="18" t="s">
+      <c r="R8" t="s">
         <v>727</v>
       </c>
-      <c r="T8" s="18" t="s">
+      <c r="T8" t="s">
         <v>695</v>
       </c>
-      <c r="U8" s="21" t="s">
+      <c r="U8" s="20" t="s">
         <v>692</v>
       </c>
-      <c r="V8" s="18" t="s">
+      <c r="V8" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C9" s="18">
+      <c r="C9">
         <v>7</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>917</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="18" t="s">
         <v>703</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" t="s">
         <v>621</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="18" t="s">
         <v>767</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" t="s">
         <v>615</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" t="s">
         <v>680</v>
       </c>
-      <c r="O9" s="18" t="s">
+      <c r="O9" t="s">
         <v>666</v>
       </c>
-      <c r="Q9" s="18" t="s">
+      <c r="Q9" t="s">
         <v>708</v>
       </c>
-      <c r="R9" s="18" t="s">
+      <c r="R9" t="s">
         <v>722</v>
       </c>
-      <c r="T9" s="18" t="s">
+      <c r="T9" t="s">
         <v>643</v>
       </c>
-      <c r="U9" s="21" t="s">
+      <c r="U9" s="20" t="s">
         <v>688</v>
       </c>
-      <c r="V9" s="18" t="s">
+      <c r="V9" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C10" s="18">
+      <c r="C10">
         <v>8</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>389</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="19" t="s">
         <v>903</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="18" t="s">
         <v>628</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" t="s">
         <v>657</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" t="s">
         <v>673</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" t="s">
         <v>681</v>
       </c>
-      <c r="O10" s="18" t="s">
+      <c r="O10" t="s">
         <v>662</v>
       </c>
-      <c r="Q10" s="18" t="s">
+      <c r="Q10" t="s">
         <v>711</v>
       </c>
-      <c r="R10" s="18" t="s">
+      <c r="R10" t="s">
         <v>725</v>
       </c>
-      <c r="T10" s="18" t="s">
+      <c r="T10" t="s">
         <v>693</v>
       </c>
-      <c r="U10" s="21" t="s">
+      <c r="U10" s="20" t="s">
         <v>640</v>
       </c>
-      <c r="V10" s="18" t="s">
+      <c r="V10" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C11" s="18">
+      <c r="C11">
         <v>9</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="19" t="s">
         <v>874</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="18" t="s">
         <v>625</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" t="s">
         <v>659</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" t="s">
         <v>679</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="L11" t="s">
         <v>684</v>
       </c>
-      <c r="O11" s="18" t="s">
+      <c r="O11" t="s">
         <v>596</v>
       </c>
-      <c r="Q11" s="18" t="s">
+      <c r="Q11" t="s">
         <v>716</v>
       </c>
-      <c r="R11" s="18" t="s">
+      <c r="R11" t="s">
         <v>723</v>
       </c>
-      <c r="T11" s="18" t="s">
+      <c r="T11" t="s">
         <v>649</v>
       </c>
-      <c r="U11" s="21" t="s">
+      <c r="U11" s="20" t="s">
         <v>697</v>
       </c>
-      <c r="V11" s="18" t="s">
+      <c r="V11" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C12" s="18">
+      <c r="C12">
         <v>10</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="19" t="s">
         <v>943</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="18" t="s">
         <v>604</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" t="s">
         <v>661</v>
       </c>
-      <c r="O12" s="18" t="s">
+      <c r="O12" t="s">
         <v>663</v>
       </c>
-      <c r="R12" s="18" t="s">
+      <c r="R12" t="s">
         <v>719</v>
       </c>
-      <c r="T12" s="18" t="s">
+      <c r="T12" t="s">
         <v>650</v>
       </c>
-      <c r="U12" s="21" t="s">
+      <c r="U12" s="20" t="s">
         <v>644</v>
       </c>
-      <c r="V12" s="18" t="s">
+      <c r="V12" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C13" s="18">
+      <c r="C13">
         <v>11</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="19" t="s">
         <v>898</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="18" t="s">
         <v>705</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" t="s">
         <v>632</v>
       </c>
-      <c r="O13" s="18" t="s">
+      <c r="O13" t="s">
         <v>699</v>
       </c>
-      <c r="R13" s="18" t="s">
+      <c r="R13" t="s">
         <v>724</v>
       </c>
-      <c r="T13" s="18" t="s">
+      <c r="T13" t="s">
         <v>651</v>
       </c>
-      <c r="U13" s="21" t="s">
+      <c r="U13" s="20" t="s">
         <v>645</v>
       </c>
-      <c r="V13" s="18" t="s">
+      <c r="V13" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C14" s="18">
+      <c r="C14">
         <v>12</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="19" t="s">
         <v>896</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="18" t="s">
         <v>660</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" t="s">
         <v>653</v>
       </c>
-      <c r="O14" s="18" t="s">
+      <c r="O14" t="s">
         <v>668</v>
       </c>
-      <c r="R14" s="18" t="s">
+      <c r="R14" t="s">
         <v>716</v>
       </c>
-      <c r="T14" s="18" t="s">
+      <c r="T14" t="s">
         <v>652</v>
       </c>
-      <c r="U14" s="21" t="s">
+      <c r="U14" s="20" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C15" s="18">
+      <c r="C15">
         <v>13</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="19" t="s">
         <v>928</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="18" t="s">
         <v>591</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" t="s">
         <v>702</v>
       </c>
-      <c r="T15" s="18" t="s">
+      <c r="T15" t="s">
         <v>696</v>
       </c>
-      <c r="U15" s="21" t="s">
+      <c r="U15" s="20" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C16" s="18">
+      <c r="C16">
         <v>14</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="18" t="s">
         <v>391</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="19" t="s">
         <v>951</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" t="s">
         <v>619</v>
       </c>
-      <c r="T16" s="18" t="s">
+      <c r="T16" t="s">
         <v>614</v>
       </c>
-      <c r="U16" s="21" t="s">
+      <c r="U16" s="20" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="17" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C17" s="18">
+      <c r="C17">
         <v>15</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="19" t="s">
         <v>923</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="18" t="s">
         <v>589</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" t="s">
         <v>672</v>
       </c>
-      <c r="U17" s="21"/>
+      <c r="U17" s="20"/>
     </row>
     <row r="18" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C18" s="18">
+      <c r="C18">
         <v>16</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="19" t="s">
         <v>953</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="18" t="s">
         <v>618</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="19" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C19" s="18">
+      <c r="C19">
         <v>17</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="19" t="s">
         <v>919</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="20" spans="3:21" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C20" s="18">
+    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C20">
         <v>18</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="19" t="s">
         <v>931</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="21" t="s">
         <v>733</v>
       </c>
+      <c r="I20" s="7" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="21" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C21" s="18">
+      <c r="C21">
         <v>19</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="19" t="s">
         <v>876</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="18" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="22" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C22" s="18">
+      <c r="C22">
         <v>20</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="18" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="23" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C23" s="18">
+      <c r="C23">
         <v>21</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="19" t="s">
         <v>886</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="24" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C24" s="18">
+      <c r="C24">
         <v>22</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="19" t="s">
         <v>884</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="18" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="25" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C25" s="18">
+      <c r="C25">
         <v>23</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="19" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="26" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C26" s="18">
+      <c r="C26">
         <v>24</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="19" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="27" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C27" s="18">
+      <c r="C27">
         <v>25</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="19" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="28" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C28" s="18">
+      <c r="C28">
         <v>26</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="19" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="29" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C29" s="18">
+      <c r="C29">
         <v>27</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="19" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="30" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C30" s="18">
+      <c r="C30">
         <v>28</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="19" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="31" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C31" s="18">
+      <c r="C31">
         <v>29</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" t="s">
         <v>551</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="19" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="32" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C32" s="18">
+      <c r="C32">
         <v>30</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="18" t="s">
         <v>397</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="19" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="18">
+      <c r="C33">
         <v>31</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="19" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="18">
+      <c r="C34">
         <v>32</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="19" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="18">
+      <c r="C35">
         <v>33</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="19" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="18">
+      <c r="C36">
         <v>34</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="G36" s="19" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="18">
+      <c r="C37">
         <v>35</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G37" s="20" t="s">
+      <c r="G37" s="19" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="18">
+      <c r="C38">
         <v>36</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="G38" s="20" t="s">
+      <c r="G38" s="19" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="18">
+      <c r="C39">
         <v>37</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="19" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="18">
+      <c r="C40">
         <v>38</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="G40" s="20" t="s">
+      <c r="G40" s="19" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="18">
+      <c r="C41">
         <v>39</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="19" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="18">
+      <c r="C42">
         <v>40</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="18" t="s">
         <v>399</v>
       </c>
-      <c r="G42" s="20" t="s">
+      <c r="G42" s="19" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="18">
+      <c r="C43">
         <v>41</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="G43" s="20" t="s">
+      <c r="G43" s="19" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="18">
+      <c r="C44">
         <v>42</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="F44" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="G44" s="20" t="s">
+      <c r="G44" s="19" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="18">
+      <c r="C45">
         <v>43</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F45" s="19" t="s">
+      <c r="F45" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="G45" s="20" t="s">
+      <c r="G45" s="19" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="18">
+      <c r="C46">
         <v>44</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="F46" s="18" t="s">
         <v>400</v>
       </c>
-      <c r="G46" s="20" t="s">
+      <c r="G46" s="19" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="18">
+      <c r="C47">
         <v>45</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="F47" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="G47" s="20" t="s">
+      <c r="G47" s="19" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="18">
+      <c r="C48">
         <v>46</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F48" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="G48" s="20" t="s">
+      <c r="G48" s="19" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C49" s="18">
+      <c r="C49">
         <v>47</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="F49" s="19" t="s">
+      <c r="F49" s="18" t="s">
         <v>331</v>
       </c>
-      <c r="G49" s="20" t="s">
+      <c r="G49" s="19" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C50" s="18">
+      <c r="C50">
         <v>48</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="19" t="s">
+      <c r="F50" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="G50" s="20" t="s">
+      <c r="G50" s="19" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C51" s="18">
+      <c r="C51">
         <v>49</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="F51" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="G51" s="20" t="s">
+      <c r="G51" s="19" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C52" s="18">
+      <c r="C52">
         <v>50</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F52" s="19" t="s">
+      <c r="F52" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="G52" s="20" t="s">
+      <c r="G52" s="19" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C53" s="18">
+      <c r="C53">
         <v>51</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F53" s="19" t="s">
+      <c r="F53" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="G53" s="20" t="s">
+      <c r="G53" s="19" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C54" s="18">
+      <c r="C54">
         <v>52</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F54" s="19" t="s">
+      <c r="F54" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="G54" s="20" t="s">
+      <c r="G54" s="19" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C55" s="18">
+      <c r="C55">
         <v>53</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F55" s="19" t="s">
+      <c r="F55" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="G55" s="20" t="s">
+      <c r="G55" s="19" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="56" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C56" s="18">
+      <c r="C56">
         <v>54</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="F56" s="19" t="s">
+      <c r="F56" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="G56" s="20" t="s">
+      <c r="G56" s="19" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="57" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C57" s="18">
+      <c r="C57">
         <v>55</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="F57" s="19" t="s">
+      <c r="F57" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="G57" s="20" t="s">
+      <c r="G57" s="19" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C58" s="18">
+      <c r="C58">
         <v>56</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E58" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F58" s="19" t="s">
+      <c r="F58" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="G58" s="20" t="s">
+      <c r="G58" s="19" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="59" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C59" s="18">
+      <c r="C59">
         <v>57</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F59" s="19" t="s">
+      <c r="F59" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="G59" s="20" t="s">
+      <c r="G59" s="19" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="60" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C60" s="18">
+      <c r="C60">
         <v>58</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="F60" s="19" t="s">
+      <c r="F60" s="18" t="s">
         <v>402</v>
       </c>
-      <c r="G60" s="20" t="s">
+      <c r="G60" s="19" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C61" s="18">
+      <c r="C61">
         <v>59</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F61" s="19" t="s">
+      <c r="F61" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="G61" s="20" t="s">
+      <c r="G61" s="19" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C62" s="18">
+      <c r="C62">
         <v>60</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="E62" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="F62" s="18" t="s">
+      <c r="F62" t="s">
         <v>240</v>
       </c>
-      <c r="G62" s="20" t="s">
+      <c r="G62" s="19" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C63" s="18">
+      <c r="C63">
         <v>61</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="E63" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="F63" s="19" t="s">
+      <c r="F63" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="G63" s="20" t="s">
+      <c r="G63" s="19" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C64" s="18">
+      <c r="C64">
         <v>62</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="E64" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="F64" s="19" t="s">
+      <c r="F64" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="G64" s="20" t="s">
+      <c r="G64" s="19" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C65" s="18">
+      <c r="C65">
         <v>63</v>
       </c>
-      <c r="E65" s="19" t="s">
+      <c r="E65" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F65" s="19" t="s">
+      <c r="F65" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="G65" s="20" t="s">
+      <c r="G65" s="19" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C66" s="18">
+      <c r="C66">
         <v>64</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="E66" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F66" s="19" t="s">
+      <c r="F66" s="18" t="s">
         <v>345</v>
       </c>
-      <c r="G66" s="20" t="s">
+      <c r="G66" s="19" t="s">
         <v>895</v>
       </c>
     </row>
     <row r="67" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C67" s="18">
+      <c r="C67">
         <v>65</v>
       </c>
-      <c r="E67" s="19" t="s">
+      <c r="E67" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F67" s="19" t="s">
+      <c r="F67" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="G67" s="20" t="s">
+      <c r="G67" s="19" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="68" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="18">
+      <c r="C68">
         <v>66</v>
       </c>
-      <c r="E68" s="19" t="s">
+      <c r="E68" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="F68" s="19" t="s">
+      <c r="F68" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="G68" s="20" t="s">
+      <c r="G68" s="19" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="69" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="18">
+      <c r="C69">
         <v>67</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E69" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F69" s="19" t="s">
+      <c r="F69" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="G69" s="20" t="s">
+      <c r="G69" s="19" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="70" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="18">
+      <c r="C70">
         <v>68</v>
       </c>
-      <c r="E70" s="19" t="s">
+      <c r="E70" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="F70" s="19" t="s">
+      <c r="F70" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="G70" s="20" t="s">
+      <c r="G70" s="19" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="71" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="18">
+      <c r="C71">
         <v>69</v>
       </c>
-      <c r="E71" s="19" t="s">
+      <c r="E71" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F71" s="19" t="s">
+      <c r="F71" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="G71" s="20" t="s">
+      <c r="G71" s="19" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="72" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="18">
+      <c r="C72">
         <v>70</v>
       </c>
-      <c r="E72" s="19" t="s">
+      <c r="E72" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="F72" s="19" t="s">
+      <c r="F72" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="G72" s="20" t="s">
+      <c r="G72" s="19" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="73" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="18">
+      <c r="C73">
         <v>71</v>
       </c>
-      <c r="E73" s="19" t="s">
+      <c r="E73" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F73" s="19" t="s">
+      <c r="F73" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="G73" s="20" t="s">
+      <c r="G73" s="19" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="18">
+      <c r="C74">
         <v>72</v>
       </c>
-      <c r="E74" s="19" t="s">
+      <c r="E74" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F74" s="19" t="s">
+      <c r="F74" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="G74" s="20" t="s">
+      <c r="G74" s="19" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="75" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="18">
+      <c r="C75">
         <v>73</v>
       </c>
-      <c r="E75" s="19" t="s">
+      <c r="E75" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="F75" s="19" t="s">
+      <c r="F75" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="G75" s="20" t="s">
+      <c r="G75" s="19" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="76" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="18">
+      <c r="C76">
         <v>74</v>
       </c>
-      <c r="E76" s="19" t="s">
+      <c r="E76" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F76" s="19" t="s">
+      <c r="F76" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="G76" s="20" t="s">
+      <c r="G76" s="19" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="77" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="18">
+      <c r="C77">
         <v>75</v>
       </c>
-      <c r="E77" s="19" t="s">
+      <c r="E77" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F77" s="19" t="s">
+      <c r="F77" s="18" t="s">
         <v>356</v>
       </c>
-      <c r="G77" s="20" t="s">
+      <c r="G77" s="19" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="78" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="18">
+      <c r="C78">
         <v>76</v>
       </c>
-      <c r="E78" s="19" t="s">
+      <c r="E78" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F78" s="19" t="s">
+      <c r="F78" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="G78" s="20" t="s">
+      <c r="G78" s="19" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="79" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="18">
+      <c r="C79">
         <v>77</v>
       </c>
-      <c r="E79" s="19" t="s">
+      <c r="E79" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="F79" s="19" t="s">
+      <c r="F79" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="G79" s="20" t="s">
+      <c r="G79" s="19" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="80" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="18">
+      <c r="C80">
         <v>78</v>
       </c>
-      <c r="E80" s="19" t="s">
+      <c r="E80" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F80" s="19" t="s">
+      <c r="F80" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="G80" s="20" t="s">
+      <c r="G80" s="19" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="18">
+      <c r="C81">
         <v>79</v>
       </c>
-      <c r="E81" s="19" t="s">
+      <c r="E81" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F81" s="19" t="s">
+      <c r="F81" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="G81" s="20" t="s">
+      <c r="G81" s="19" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="18">
+      <c r="C82">
         <v>80</v>
       </c>
-      <c r="E82" s="19" t="s">
+      <c r="E82" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F82" s="19" t="s">
+      <c r="F82" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="G82" s="20" t="s">
+      <c r="G82" s="19" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="18">
+      <c r="C83">
         <v>81</v>
       </c>
-      <c r="E83" s="19" t="s">
+      <c r="E83" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F83" s="19" t="s">
+      <c r="F83" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="G83" s="20" t="s">
+      <c r="G83" s="19" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="18">
+      <c r="C84">
         <v>82</v>
       </c>
-      <c r="E84" s="19" t="s">
+      <c r="E84" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="F84" s="19" t="s">
+      <c r="F84" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="G84" s="20" t="s">
+      <c r="G84" s="19" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="18">
+      <c r="C85">
         <v>83</v>
       </c>
-      <c r="E85" s="19" t="s">
+      <c r="E85" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F85" s="19" t="s">
+      <c r="F85" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="G85" s="20" t="s">
+      <c r="G85" s="19" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="18">
+      <c r="C86">
         <v>84</v>
       </c>
-      <c r="E86" s="19" t="s">
+      <c r="E86" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="F86" s="19" t="s">
+      <c r="F86" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="G86" s="20" t="s">
+      <c r="G86" s="19" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="18">
+      <c r="C87">
         <v>85</v>
       </c>
-      <c r="E87" s="19" t="s">
+      <c r="E87" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F87" s="19" t="s">
+      <c r="F87" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="G87" s="20" t="s">
+      <c r="G87" s="19" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="18">
+      <c r="C88">
         <v>86</v>
       </c>
-      <c r="E88" s="19" t="s">
+      <c r="E88" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="F88" s="19" t="s">
+      <c r="F88" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="G88" s="20" t="s">
+      <c r="G88" s="19" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="18">
+      <c r="C89">
         <v>87</v>
       </c>
-      <c r="E89" s="19" t="s">
+      <c r="E89" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F89" s="19" t="s">
+      <c r="F89" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="G89" s="20" t="s">
+      <c r="G89" s="19" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="18">
+      <c r="C90">
         <v>88</v>
       </c>
-      <c r="E90" s="19" t="s">
+      <c r="E90" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F90" s="19" t="s">
+      <c r="F90" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="G90" s="20" t="s">
+      <c r="G90" s="19" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="18">
+      <c r="C91">
         <v>89</v>
       </c>
-      <c r="E91" s="19" t="s">
+      <c r="E91" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="F91" s="19" t="s">
+      <c r="F91" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="G91" s="20" t="s">
+      <c r="G91" s="19" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="18">
+      <c r="C92">
         <v>90</v>
       </c>
-      <c r="E92" s="19" t="s">
+      <c r="E92" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F92" s="19" t="s">
+      <c r="F92" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="G92" s="20" t="s">
+      <c r="G92" s="19" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="93" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="18">
+      <c r="C93">
         <v>91</v>
       </c>
-      <c r="E93" s="19" t="s">
+      <c r="E93" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F93" s="19" t="s">
+      <c r="F93" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="G93" s="20" t="s">
+      <c r="G93" s="19" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="94" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="18">
+      <c r="C94">
         <v>92</v>
       </c>
-      <c r="E94" s="19" t="s">
+      <c r="E94" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F94" s="18" t="s">
+      <c r="F94" t="s">
         <v>296</v>
       </c>
-      <c r="G94" s="20" t="s">
+      <c r="G94" s="19" t="s">
         <v>899</v>
       </c>
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="18">
+      <c r="C95">
         <v>93</v>
       </c>
-      <c r="E95" s="19" t="s">
+      <c r="E95" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F95" s="19" t="s">
+      <c r="F95" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="G95" s="20" t="s">
+      <c r="G95" s="19" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="96" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="18">
+      <c r="C96">
         <v>94</v>
       </c>
-      <c r="E96" s="19" t="s">
+      <c r="E96" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="F96" s="19" t="s">
+      <c r="F96" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="G96" s="20" t="s">
+      <c r="G96" s="19" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="97" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C97" s="18">
+      <c r="C97">
         <v>95</v>
       </c>
-      <c r="E97" s="19" t="s">
+      <c r="E97" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F97" s="19" t="s">
+      <c r="F97" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="G97" s="20" t="s">
+      <c r="G97" s="19" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="18">
+      <c r="C98">
         <v>96</v>
       </c>
-      <c r="E98" s="19" t="s">
+      <c r="E98" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="F98" s="19" t="s">
+      <c r="F98" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="G98" s="20" t="s">
+      <c r="G98" s="19" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="18">
+      <c r="C99">
         <v>97</v>
       </c>
-      <c r="E99" s="19" t="s">
+      <c r="E99" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="F99" s="19" t="s">
+      <c r="F99" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="G99" s="20" t="s">
+      <c r="G99" s="19" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="18">
+      <c r="C100">
         <v>98</v>
       </c>
-      <c r="E100" s="19" t="s">
+      <c r="E100" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F100" s="19" t="s">
+      <c r="F100" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="G100" s="20" t="s">
+      <c r="G100" s="19" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="18">
+      <c r="C101">
         <v>99</v>
       </c>
-      <c r="E101" s="19" t="s">
+      <c r="E101" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="F101" s="19" t="s">
+      <c r="F101" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="G101" s="20" t="s">
+      <c r="G101" s="19" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C102" s="18">
+      <c r="C102">
         <v>100</v>
       </c>
-      <c r="E102" s="19" t="s">
+      <c r="E102" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F102" s="19" t="s">
+      <c r="F102" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="G102" s="20"/>
+      <c r="G102" s="19"/>
     </row>
     <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="18">
+      <c r="C103">
         <v>101</v>
       </c>
-      <c r="E103" s="19" t="s">
+      <c r="E103" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="F103" s="19" t="s">
+      <c r="F103" s="18" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="104" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="18">
+      <c r="C104">
         <v>102</v>
       </c>
-      <c r="E104" s="19" t="s">
+      <c r="E104" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F104" s="19" t="s">
+      <c r="F104" s="18" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="18">
+      <c r="C105">
         <v>103</v>
       </c>
-      <c r="E105" s="19" t="s">
+      <c r="E105" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F105" s="19" t="s">
+      <c r="F105" s="18" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="106" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="18">
+      <c r="C106">
         <v>104</v>
       </c>
-      <c r="E106" s="19" t="s">
+      <c r="E106" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F106" s="19" t="s">
+      <c r="F106" s="18" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="18">
+      <c r="C107">
         <v>105</v>
       </c>
-      <c r="E107" s="19" t="s">
+      <c r="E107" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F107" s="19" t="s">
+      <c r="F107" s="18" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="108" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="18">
+      <c r="C108">
         <v>106</v>
       </c>
-      <c r="E108" s="19" t="s">
+      <c r="E108" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F108" s="19" t="s">
+      <c r="F108" s="18" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="109" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="18">
+      <c r="C109">
         <v>107</v>
       </c>
-      <c r="E109" s="19" t="s">
+      <c r="E109" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F109" s="19" t="s">
+      <c r="F109" s="18" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="110" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="18">
+      <c r="C110">
         <v>108</v>
       </c>
-      <c r="E110" s="19" t="s">
+      <c r="E110" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F110" s="19" t="s">
+      <c r="F110" s="18" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="111" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="18">
+      <c r="C111">
         <v>109</v>
       </c>
-      <c r="E111" s="19" t="s">
+      <c r="E111" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F111" s="19" t="s">
+      <c r="F111" s="18" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="112" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="18">
+      <c r="C112">
         <v>110</v>
       </c>
-      <c r="E112" s="19" t="s">
+      <c r="E112" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F112" s="19" t="s">
+      <c r="F112" s="18" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="113" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C113" s="18">
+      <c r="C113">
         <v>111</v>
       </c>
-      <c r="E113" s="19" t="s">
+      <c r="E113" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="F113" s="19" t="s">
+      <c r="F113" s="18" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="114" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C114" s="18">
+      <c r="C114">
         <v>112</v>
       </c>
-      <c r="E114" s="19" t="s">
+      <c r="E114" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F114" s="19" t="s">
+      <c r="F114" s="18" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="115" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C115" s="18">
+      <c r="C115">
         <v>113</v>
       </c>
-      <c r="E115" s="19" t="s">
+      <c r="E115" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F115" s="19" t="s">
+      <c r="F115" s="18" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="116" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C116" s="18">
+      <c r="C116">
         <v>114</v>
       </c>
-      <c r="E116" s="19" t="s">
+      <c r="E116" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F116" s="18" t="s">
+      <c r="F116" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="117" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C117" s="18">
+      <c r="C117">
         <v>115</v>
       </c>
-      <c r="E117" s="19" t="s">
+      <c r="E117" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F117" s="19" t="s">
+      <c r="F117" s="18" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="118" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C118" s="18">
+      <c r="C118">
         <v>116</v>
       </c>
-      <c r="E118" s="19" t="s">
+      <c r="E118" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="F118" s="19" t="s">
+      <c r="F118" s="18" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="119" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C119" s="18">
+      <c r="C119">
         <v>117</v>
       </c>
-      <c r="E119" s="19" t="s">
+      <c r="E119" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="F119" s="19" t="s">
+      <c r="F119" s="18" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="120" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C120" s="18">
+      <c r="C120">
         <v>118</v>
       </c>
-      <c r="E120" s="19" t="s">
+      <c r="E120" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="F120" s="19" t="s">
+      <c r="F120" s="18" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="121" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C121" s="18">
+      <c r="C121">
         <v>119</v>
       </c>
-      <c r="E121" s="19" t="s">
+      <c r="E121" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F121" s="19" t="s">
+      <c r="F121" s="18" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="122" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C122" s="18">
+      <c r="C122">
         <v>120</v>
       </c>
-      <c r="E122" s="19" t="s">
+      <c r="E122" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="F122" s="19" t="s">
+      <c r="F122" s="18" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="123" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C123" s="18">
+      <c r="C123">
         <v>121</v>
       </c>
-      <c r="E123" s="19" t="s">
+      <c r="E123" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="F123" s="19" t="s">
+      <c r="F123" s="18" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="124" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C124" s="18">
+      <c r="C124">
         <v>122</v>
       </c>
-      <c r="E124" s="19" t="s">
+      <c r="E124" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="F124" s="19" t="s">
+      <c r="F124" s="18" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="125" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C125" s="18">
+      <c r="C125">
         <v>123</v>
       </c>
-      <c r="E125" s="19" t="s">
+      <c r="E125" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="F125" s="18" t="s">
+      <c r="F125" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="126" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C126" s="18">
+      <c r="C126">
         <v>124</v>
       </c>
-      <c r="E126" s="19" t="s">
+      <c r="E126" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F126" s="18" t="s">
+      <c r="F126" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="127" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C127" s="18">
+      <c r="C127">
         <v>125</v>
       </c>
-      <c r="E127" s="19" t="s">
+      <c r="E127" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F127" s="19" t="s">
+      <c r="F127" s="18" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="128" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C128" s="18">
+      <c r="C128">
         <v>126</v>
       </c>
-      <c r="E128" s="19" t="s">
+      <c r="E128" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F128" s="19" t="s">
+      <c r="F128" s="18" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="129" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C129" s="18">
+      <c r="C129">
         <v>127</v>
       </c>
-      <c r="E129" s="19" t="s">
+      <c r="E129" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F129" s="19" t="s">
+      <c r="F129" s="18" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="130" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C130" s="18">
+      <c r="C130">
         <v>128</v>
       </c>
-      <c r="E130" s="19" t="s">
+      <c r="E130" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F130" s="18" t="s">
+      <c r="F130" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="131" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C131" s="18">
+      <c r="C131">
         <v>129</v>
       </c>
-      <c r="E131" s="19" t="s">
+      <c r="E131" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="F131" s="18" t="s">
+      <c r="F131" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="132" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C132" s="18">
+      <c r="C132">
         <v>130</v>
       </c>
-      <c r="E132" s="19" t="s">
+      <c r="E132" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="F132" s="19" t="s">
+      <c r="F132" s="18" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="133" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C133" s="18">
+      <c r="C133">
         <v>131</v>
       </c>
-      <c r="E133" s="19" t="s">
+      <c r="E133" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="F133" s="18" t="s">
+      <c r="F133" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="134" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C134" s="18">
+      <c r="C134">
         <v>132</v>
       </c>
-      <c r="E134" s="19" t="s">
+      <c r="E134" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="F134" s="18" t="s">
+      <c r="F134" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="135" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C135" s="18">
+      <c r="C135">
         <v>133</v>
       </c>
-      <c r="E135" s="19" t="s">
+      <c r="E135" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="F135" s="18" t="s">
+      <c r="F135" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="136" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C136" s="18">
+      <c r="C136">
         <v>134</v>
       </c>
-      <c r="E136" s="19" t="s">
+      <c r="E136" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F136" s="18" t="s">
+      <c r="F136" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="137" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C137" s="18">
+      <c r="C137">
         <v>135</v>
       </c>
-      <c r="E137" s="19" t="s">
+      <c r="E137" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F137" s="18" t="s">
+      <c r="F137" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="138" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C138" s="18">
+      <c r="C138">
         <v>136</v>
       </c>
-      <c r="E138" s="19" t="s">
+      <c r="E138" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F138" s="18" t="s">
+      <c r="F138" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="139" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C139" s="18">
+      <c r="C139">
         <v>137</v>
       </c>
-      <c r="E139" s="19" t="s">
+      <c r="E139" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F139" s="18" t="s">
+      <c r="F139" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="140" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C140" s="18">
+      <c r="C140">
         <v>138</v>
       </c>
-      <c r="E140" s="19" t="s">
+      <c r="E140" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F140" s="18" t="s">
+      <c r="F140" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="141" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C141" s="18">
+      <c r="C141">
         <v>139</v>
       </c>
-      <c r="E141" s="19" t="s">
+      <c r="E141" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F141" s="18" t="s">
+      <c r="F141" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="142" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C142" s="18">
+      <c r="C142">
         <v>140</v>
       </c>
-      <c r="E142" s="19" t="s">
+      <c r="E142" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="F142" s="19" t="s">
+      <c r="F142" s="18" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="143" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C143" s="18">
+      <c r="C143">
         <v>141</v>
       </c>
-      <c r="E143" s="19" t="s">
+      <c r="E143" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F143" s="19" t="s">
+      <c r="F143" s="18" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="144" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C144" s="18">
+      <c r="C144">
         <v>142</v>
       </c>
-      <c r="E144" s="19" t="s">
+      <c r="E144" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F144" s="18" t="s">
+      <c r="F144" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="145" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C145" s="18">
+      <c r="C145">
         <v>143</v>
       </c>
-      <c r="E145" s="19" t="s">
+      <c r="E145" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F145" s="18" t="s">
+      <c r="F145" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="146" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C146" s="18">
+      <c r="C146">
         <v>144</v>
       </c>
-      <c r="E146" s="19" t="s">
+      <c r="E146" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F146" s="18" t="s">
+      <c r="F146" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="147" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C147" s="18">
+      <c r="C147">
         <v>145</v>
       </c>
-      <c r="E147" s="19" t="s">
+      <c r="E147" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="F147" s="18" t="s">
+      <c r="F147" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="148" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C148" s="18">
+      <c r="C148">
         <v>146</v>
       </c>
-      <c r="E148" s="19" t="s">
+      <c r="E148" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F148" s="18" t="s">
+      <c r="F148" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="149" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C149" s="18">
+      <c r="C149">
         <v>147</v>
       </c>
-      <c r="E149" s="19" t="s">
+      <c r="E149" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="F149" s="18" t="s">
+      <c r="F149" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="150" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C150" s="18">
+      <c r="C150">
         <v>148</v>
       </c>
-      <c r="E150" s="19" t="s">
+      <c r="E150" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="F150" s="18" t="s">
+      <c r="F150" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="151" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C151" s="18">
+      <c r="C151">
         <v>149</v>
       </c>
-      <c r="E151" s="19" t="s">
+      <c r="E151" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="F151" s="18" t="s">
+      <c r="F151" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="152" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C152" s="18">
+      <c r="C152">
         <v>150</v>
       </c>
-      <c r="E152" s="19" t="s">
+      <c r="E152" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="F152" s="18" t="s">
+      <c r="F152" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="153" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C153" s="18">
+      <c r="C153">
         <v>151</v>
       </c>
-      <c r="E153" s="19" t="s">
+      <c r="E153" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="F153" s="18" t="s">
+      <c r="F153" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="154" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C154" s="18">
+      <c r="C154">
         <v>152</v>
       </c>
-      <c r="E154" s="19" t="s">
+      <c r="E154" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F154" s="18" t="s">
+      <c r="F154" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="155" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C155" s="18">
+      <c r="C155">
         <v>153</v>
       </c>
-      <c r="E155" s="19" t="s">
+      <c r="E155" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="F155" s="19" t="s">
+      <c r="F155" s="18" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="156" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C156" s="18">
+      <c r="C156">
         <v>154</v>
       </c>
-      <c r="E156" s="19" t="s">
+      <c r="E156" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="F156" s="19" t="s">
+      <c r="F156" s="18" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="157" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C157" s="18">
+      <c r="C157">
         <v>155</v>
       </c>
-      <c r="E157" s="19" t="s">
+      <c r="E157" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="F157" s="19" t="s">
+      <c r="F157" s="18" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="158" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C158" s="18">
+      <c r="C158">
         <v>156</v>
       </c>
-      <c r="E158" s="19" t="s">
+      <c r="E158" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F158" s="19" t="s">
+      <c r="F158" s="18" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="159" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C159" s="18">
+      <c r="C159">
         <v>157</v>
       </c>
-      <c r="E159" s="19" t="s">
+      <c r="E159" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F159" s="18" t="s">
+      <c r="F159" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="160" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C160" s="18">
+      <c r="C160">
         <v>158</v>
       </c>
-      <c r="E160" s="19" t="s">
+      <c r="E160" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="F160" s="18" t="s">
+      <c r="F160" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="161" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C161" s="18">
+      <c r="C161">
         <v>159</v>
       </c>
-      <c r="E161" s="19" t="s">
+      <c r="E161" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F161" s="18" t="s">
+      <c r="F161" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="162" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C162" s="18">
+      <c r="C162">
         <v>395</v>
       </c>
       <c r="E162" s="9" t="s">
@@ -7094,2012 +7099,2012 @@
       </c>
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C163" s="18">
+      <c r="C163">
         <v>160</v>
       </c>
-      <c r="E163" s="19" t="s">
+      <c r="E163" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="F163" s="18" t="s">
+      <c r="F163" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C164" s="18">
+      <c r="C164">
         <v>161</v>
       </c>
-      <c r="E164" s="19" t="s">
+      <c r="E164" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="F164" s="18" t="s">
+      <c r="F164" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C165" s="18">
+      <c r="C165">
         <v>162</v>
       </c>
-      <c r="E165" s="19" t="s">
+      <c r="E165" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F165" s="19" t="s">
+      <c r="F165" s="18" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C166" s="18">
+      <c r="C166">
         <v>163</v>
       </c>
-      <c r="E166" s="19" t="s">
+      <c r="E166" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F166" s="19" t="s">
+      <c r="F166" s="18" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C167" s="18">
+      <c r="C167">
         <v>164</v>
       </c>
-      <c r="E167" s="19" t="s">
+      <c r="E167" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F167" s="19" t="s">
+      <c r="F167" s="18" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C168" s="18">
+      <c r="C168">
         <v>165</v>
       </c>
-      <c r="E168" s="19" t="s">
+      <c r="E168" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F168" s="19" t="s">
+      <c r="F168" s="18" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="169" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C169" s="18">
+      <c r="C169">
         <v>166</v>
       </c>
-      <c r="E169" s="19" t="s">
+      <c r="E169" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="F169" s="19" t="s">
+      <c r="F169" s="18" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="170" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C170" s="18">
+      <c r="C170">
         <v>167</v>
       </c>
-      <c r="E170" s="19" t="s">
+      <c r="E170" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="F170" s="18" t="s">
+      <c r="F170" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="171" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C171" s="18">
+      <c r="C171">
         <v>168</v>
       </c>
-      <c r="E171" s="19" t="s">
+      <c r="E171" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="F171" s="18" t="s">
+      <c r="F171" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C172" s="18">
+      <c r="C172">
         <v>169</v>
       </c>
-      <c r="E172" s="19" t="s">
+      <c r="E172" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="F172" s="18" t="s">
+      <c r="F172" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C173" s="18">
+      <c r="C173">
         <v>170</v>
       </c>
-      <c r="E173" s="19" t="s">
+      <c r="E173" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F173" s="18" t="s">
+      <c r="F173" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="174" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C174" s="18">
+      <c r="C174">
         <v>171</v>
       </c>
-      <c r="E174" s="19" t="s">
+      <c r="E174" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F174" s="18" t="s">
+      <c r="F174" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C175" s="18">
+      <c r="C175">
         <v>172</v>
       </c>
-      <c r="E175" s="19" t="s">
+      <c r="E175" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F175" s="18" t="s">
+      <c r="F175" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C176" s="18">
+      <c r="C176">
         <v>173</v>
       </c>
-      <c r="E176" s="19" t="s">
+      <c r="E176" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="F176" s="18" t="s">
+      <c r="F176" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="177" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C177" s="18">
+      <c r="C177">
         <v>174</v>
       </c>
-      <c r="E177" s="19" t="s">
+      <c r="E177" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="F177" s="19" t="s">
+      <c r="F177" s="18" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="178" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C178" s="18">
+      <c r="C178">
         <v>175</v>
       </c>
-      <c r="E178" s="19" t="s">
+      <c r="E178" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F178" s="19" t="s">
+      <c r="F178" s="18" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="179" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C179" s="18">
+      <c r="C179">
         <v>176</v>
       </c>
-      <c r="E179" s="19" t="s">
+      <c r="E179" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F179" s="19" t="s">
+      <c r="F179" s="18" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="180" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C180" s="18">
+      <c r="C180">
         <v>177</v>
       </c>
-      <c r="E180" s="19" t="s">
+      <c r="E180" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="F180" s="18" t="s">
+      <c r="F180" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="181" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C181" s="18">
+      <c r="C181">
         <v>178</v>
       </c>
-      <c r="E181" s="19" t="s">
+      <c r="E181" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="F181" s="19" t="s">
+      <c r="F181" s="18" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="182" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C182" s="18">
+      <c r="C182">
         <v>179</v>
       </c>
-      <c r="E182" s="19" t="s">
+      <c r="E182" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="F182" s="18" t="s">
+      <c r="F182" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="183" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C183" s="18">
+      <c r="C183">
         <v>180</v>
       </c>
-      <c r="E183" s="19" t="s">
+      <c r="E183" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="F183" s="18" t="s">
+      <c r="F183" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="184" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C184" s="18">
+      <c r="C184">
         <v>181</v>
       </c>
-      <c r="E184" s="19" t="s">
+      <c r="E184" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F184" s="18" t="s">
+      <c r="F184" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="185" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C185" s="18">
+      <c r="C185">
         <v>182</v>
       </c>
-      <c r="E185" s="19" t="s">
+      <c r="E185" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F185" s="18" t="s">
+      <c r="F185" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="186" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C186" s="18">
+      <c r="C186">
         <v>183</v>
       </c>
-      <c r="E186" s="19" t="s">
+      <c r="E186" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F186" s="18" t="s">
+      <c r="F186" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="187" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C187" s="18">
+      <c r="C187">
         <v>184</v>
       </c>
-      <c r="E187" s="19" t="s">
+      <c r="E187" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F187" s="18" t="s">
+      <c r="F187" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="188" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C188" s="18">
+      <c r="C188">
         <v>185</v>
       </c>
-      <c r="E188" s="19" t="s">
+      <c r="E188" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="F188" s="18" t="s">
+      <c r="F188" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="189" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C189" s="18">
+      <c r="C189">
         <v>186</v>
       </c>
-      <c r="E189" s="19" t="s">
+      <c r="E189" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="F189" s="19" t="s">
+      <c r="F189" s="18" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="190" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C190" s="18">
+      <c r="C190">
         <v>187</v>
       </c>
-      <c r="E190" s="19" t="s">
+      <c r="E190" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="F190" s="19" t="s">
+      <c r="F190" s="18" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="191" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C191" s="18">
+      <c r="C191">
         <v>188</v>
       </c>
-      <c r="E191" s="19" t="s">
+      <c r="E191" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F191" s="18" t="s">
+      <c r="F191" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="192" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C192" s="18">
+      <c r="C192">
         <v>189</v>
       </c>
-      <c r="E192" s="19" t="s">
+      <c r="E192" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="F192" s="19" t="s">
+      <c r="F192" s="18" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="193" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C193" s="18">
+      <c r="C193">
         <v>190</v>
       </c>
-      <c r="E193" s="19" t="s">
+      <c r="E193" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F193" s="18" t="s">
+      <c r="F193" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="194" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C194" s="18">
+      <c r="C194">
         <v>191</v>
       </c>
-      <c r="E194" s="19" t="s">
+      <c r="E194" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="F194" s="19" t="s">
+      <c r="F194" s="18" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="195" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C195" s="18">
+      <c r="C195">
         <v>192</v>
       </c>
-      <c r="E195" s="19" t="s">
+      <c r="E195" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="F195" s="19" t="s">
+      <c r="F195" s="18" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="196" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C196" s="18">
+      <c r="C196">
         <v>193</v>
       </c>
-      <c r="E196" s="19" t="s">
+      <c r="E196" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="F196" s="18" t="s">
+      <c r="F196" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="197" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C197" s="18">
+      <c r="C197">
         <v>194</v>
       </c>
-      <c r="E197" s="19" t="s">
+      <c r="E197" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F197" s="19" t="s">
+      <c r="F197" s="18" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="198" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C198" s="18">
+      <c r="C198">
         <v>195</v>
       </c>
-      <c r="E198" s="19" t="s">
+      <c r="E198" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F198" s="18" t="s">
+      <c r="F198" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="199" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C199" s="18">
+      <c r="C199">
         <v>196</v>
       </c>
-      <c r="F199" s="19" t="s">
+      <c r="F199" s="18" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="200" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C200" s="18">
+      <c r="C200">
         <v>197</v>
       </c>
-      <c r="F200" s="19" t="s">
+      <c r="F200" s="18" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="201" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C201" s="18">
+      <c r="C201">
         <v>198</v>
       </c>
-      <c r="F201" s="18" t="s">
+      <c r="F201" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="202" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C202" s="18">
+      <c r="C202">
         <v>199</v>
       </c>
-      <c r="F202" s="18" t="s">
+      <c r="F202" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="203" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C203" s="18">
+      <c r="C203">
         <v>200</v>
       </c>
-      <c r="F203" s="18" t="s">
+      <c r="F203" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="204" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C204" s="18">
+      <c r="C204">
         <v>201</v>
       </c>
-      <c r="F204" s="18" t="s">
+      <c r="F204" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="205" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C205" s="18">
+      <c r="C205">
         <v>202</v>
       </c>
-      <c r="F205" s="18" t="s">
+      <c r="F205" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="206" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C206" s="18">
+      <c r="C206">
         <v>203</v>
       </c>
-      <c r="F206" s="18" t="s">
+      <c r="F206" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="207" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C207" s="18">
+      <c r="C207">
         <v>204</v>
       </c>
-      <c r="F207" s="18" t="s">
+      <c r="F207" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="208" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C208" s="18">
+      <c r="C208">
         <v>205</v>
       </c>
-      <c r="F208" s="18" t="s">
+      <c r="F208" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="209" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C209" s="18">
+      <c r="C209">
         <v>206</v>
       </c>
-      <c r="F209" s="19" t="s">
+      <c r="F209" s="18" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="210" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C210" s="18">
+      <c r="C210">
         <v>207</v>
       </c>
-      <c r="F210" s="19" t="s">
+      <c r="F210" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="211" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C211" s="18">
+      <c r="C211">
         <v>208</v>
       </c>
-      <c r="F211" s="19" t="s">
+      <c r="F211" s="18" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="212" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C212" s="18">
+      <c r="C212">
         <v>209</v>
       </c>
-      <c r="F212" s="19" t="s">
+      <c r="F212" s="18" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="213" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C213" s="18">
+      <c r="C213">
         <v>210</v>
       </c>
-      <c r="F213" s="19" t="s">
+      <c r="F213" s="18" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="214" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C214" s="18">
+      <c r="C214">
         <v>211</v>
       </c>
-      <c r="F214" s="18" t="s">
+      <c r="F214" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="215" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C215" s="18">
+      <c r="C215">
         <v>212</v>
       </c>
-      <c r="F215" s="19" t="s">
+      <c r="F215" s="18" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="216" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C216" s="18">
+      <c r="C216">
         <v>213</v>
       </c>
-      <c r="F216" s="18" t="s">
+      <c r="F216" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="217" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C217" s="18">
+      <c r="C217">
         <v>214</v>
       </c>
-      <c r="F217" s="19" t="s">
+      <c r="F217" s="18" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="218" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C218" s="18">
+      <c r="C218">
         <v>215</v>
       </c>
-      <c r="F218" s="18" t="s">
+      <c r="F218" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="219" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C219" s="18">
+      <c r="C219">
         <v>216</v>
       </c>
-      <c r="F219" s="19" t="s">
+      <c r="F219" s="18" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="220" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C220" s="18">
+      <c r="C220">
         <v>217</v>
       </c>
-      <c r="F220" s="19" t="s">
+      <c r="F220" s="18" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="221" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C221" s="18">
+      <c r="C221">
         <v>218</v>
       </c>
-      <c r="F221" s="18" t="s">
+      <c r="F221" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="222" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C222" s="18">
+      <c r="C222">
         <v>219</v>
       </c>
-      <c r="F222" s="19" t="s">
+      <c r="F222" s="18" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="223" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C223" s="18">
+      <c r="C223">
         <v>220</v>
       </c>
-      <c r="F223" s="18" t="s">
+      <c r="F223" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="224" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C224" s="18">
+      <c r="C224">
         <v>221</v>
       </c>
-      <c r="F224" s="18" t="s">
+      <c r="F224" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="225" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C225" s="18">
+      <c r="C225">
         <v>222</v>
       </c>
-      <c r="F225" s="18" t="s">
+      <c r="F225" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="226" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C226" s="18">
+      <c r="C226">
         <v>223</v>
       </c>
-      <c r="F226" s="19" t="s">
+      <c r="F226" s="18" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="227" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C227" s="18">
+      <c r="C227">
         <v>224</v>
       </c>
-      <c r="F227" s="19" t="s">
+      <c r="F227" s="18" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="228" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C228" s="18">
+      <c r="C228">
         <v>225</v>
       </c>
-      <c r="F228" s="19" t="s">
+      <c r="F228" s="18" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="229" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C229" s="18">
+      <c r="C229">
         <v>226</v>
       </c>
-      <c r="F229" s="18" t="s">
+      <c r="F229" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="230" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C230" s="18">
+      <c r="C230">
         <v>227</v>
       </c>
-      <c r="F230" s="19" t="s">
+      <c r="F230" s="18" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="231" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C231" s="18">
+      <c r="C231">
         <v>228</v>
       </c>
-      <c r="F231" s="18" t="s">
+      <c r="F231" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="232" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C232" s="18">
+      <c r="C232">
         <v>229</v>
       </c>
-      <c r="F232" s="18" t="s">
+      <c r="F232" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="233" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C233" s="18">
+      <c r="C233">
         <v>230</v>
       </c>
-      <c r="F233" s="18" t="s">
+      <c r="F233" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="234" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C234" s="18">
+      <c r="C234">
         <v>231</v>
       </c>
-      <c r="F234" s="18" t="s">
+      <c r="F234" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="235" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C235" s="18">
+      <c r="C235">
         <v>232</v>
       </c>
-      <c r="F235" s="18" t="s">
+      <c r="F235" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="236" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C236" s="18">
+      <c r="C236">
         <v>233</v>
       </c>
-      <c r="F236" s="18" t="s">
+      <c r="F236" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="237" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C237" s="18">
+      <c r="C237">
         <v>234</v>
       </c>
-      <c r="F237" s="18" t="s">
+      <c r="F237" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="238" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C238" s="18">
+      <c r="C238">
         <v>235</v>
       </c>
-      <c r="F238" s="18" t="s">
+      <c r="F238" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="239" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C239" s="18">
+      <c r="C239">
         <v>236</v>
       </c>
-      <c r="F239" s="18" t="s">
+      <c r="F239" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="240" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C240" s="18">
+      <c r="C240">
         <v>237</v>
       </c>
-      <c r="F240" s="18" t="s">
+      <c r="F240" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="241" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C241" s="18">
+      <c r="C241">
         <v>238</v>
       </c>
-      <c r="F241" s="18" t="s">
+      <c r="F241" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="242" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C242" s="18">
+      <c r="C242">
         <v>239</v>
       </c>
-      <c r="F242" s="18" t="s">
+      <c r="F242" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="243" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C243" s="18">
+      <c r="C243">
         <v>240</v>
       </c>
-      <c r="F243" s="18" t="s">
+      <c r="F243" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="244" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C244" s="18">
+      <c r="C244">
         <v>241</v>
       </c>
-      <c r="F244" s="19" t="s">
+      <c r="F244" s="18" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="245" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C245" s="18">
+      <c r="C245">
         <v>242</v>
       </c>
-      <c r="F245" s="19" t="s">
+      <c r="F245" s="18" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="246" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C246" s="18">
+      <c r="C246">
         <v>243</v>
       </c>
-      <c r="F246" s="18" t="s">
+      <c r="F246" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="247" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C247" s="18">
+      <c r="C247">
         <v>244</v>
       </c>
-      <c r="F247" s="18" t="s">
+      <c r="F247" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="248" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C248" s="18">
+      <c r="C248">
         <v>245</v>
       </c>
-      <c r="F248" s="18" t="s">
+      <c r="F248" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="249" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C249" s="18">
+      <c r="C249">
         <v>246</v>
       </c>
-      <c r="F249" s="19" t="s">
+      <c r="F249" s="18" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="250" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C250" s="18">
+      <c r="C250">
         <v>247</v>
       </c>
-      <c r="F250" s="18" t="s">
+      <c r="F250" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="251" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C251" s="18">
+      <c r="C251">
         <v>248</v>
       </c>
-      <c r="F251" s="18" t="s">
+      <c r="F251" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="252" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C252" s="18">
+      <c r="C252">
         <v>249</v>
       </c>
-      <c r="F252" s="18" t="s">
+      <c r="F252" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="253" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C253" s="18">
+      <c r="C253">
         <v>250</v>
       </c>
-      <c r="F253" s="19" t="s">
+      <c r="F253" s="18" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="254" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C254" s="18">
+      <c r="C254">
         <v>251</v>
       </c>
-      <c r="F254" s="19" t="s">
+      <c r="F254" s="18" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="255" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C255" s="18">
+      <c r="C255">
         <v>252</v>
       </c>
-      <c r="F255" s="19" t="s">
+      <c r="F255" s="18" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="256" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C256" s="18">
+      <c r="C256">
         <v>253</v>
       </c>
-      <c r="F256" s="19" t="s">
+      <c r="F256" s="18" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="257" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C257" s="18">
+      <c r="C257">
         <v>254</v>
       </c>
-      <c r="F257" s="19" t="s">
+      <c r="F257" s="18" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="258" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C258" s="18">
+      <c r="C258">
         <v>255</v>
       </c>
-      <c r="F258" s="18" t="s">
+      <c r="F258" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="259" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C259" s="18">
+      <c r="C259">
         <v>256</v>
       </c>
-      <c r="F259" s="18" t="s">
+      <c r="F259" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="260" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C260" s="18">
+      <c r="C260">
         <v>257</v>
       </c>
-      <c r="F260" s="18" t="s">
+      <c r="F260" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="261" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C261" s="18">
+      <c r="C261">
         <v>258</v>
       </c>
-      <c r="F261" s="18" t="s">
+      <c r="F261" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="262" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C262" s="18">
+      <c r="C262">
         <v>259</v>
       </c>
-      <c r="F262" s="19" t="s">
+      <c r="F262" s="18" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="263" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C263" s="18">
+      <c r="C263">
         <v>260</v>
       </c>
-      <c r="F263" s="18" t="s">
+      <c r="F263" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="264" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C264" s="18">
+      <c r="C264">
         <v>261</v>
       </c>
-      <c r="F264" s="19" t="s">
+      <c r="F264" s="18" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="265" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C265" s="18">
+      <c r="C265">
         <v>262</v>
       </c>
-      <c r="F265" s="18" t="s">
+      <c r="F265" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="266" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C266" s="18">
+      <c r="C266">
         <v>263</v>
       </c>
-      <c r="F266" s="19" t="s">
+      <c r="F266" s="18" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="267" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C267" s="18">
+      <c r="C267">
         <v>264</v>
       </c>
-      <c r="F267" s="18" t="s">
+      <c r="F267" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="268" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C268" s="18">
+      <c r="C268">
         <v>265</v>
       </c>
-      <c r="F268" s="18" t="s">
+      <c r="F268" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="269" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C269" s="18">
+      <c r="C269">
         <v>266</v>
       </c>
-      <c r="F269" s="18" t="s">
+      <c r="F269" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="270" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C270" s="18">
+      <c r="C270">
         <v>267</v>
       </c>
-      <c r="F270" s="19" t="s">
+      <c r="F270" s="18" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="271" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C271" s="18">
+      <c r="C271">
         <v>268</v>
       </c>
-      <c r="F271" s="19" t="s">
+      <c r="F271" s="18" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="272" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C272" s="18">
+      <c r="C272">
         <v>269</v>
       </c>
-      <c r="F272" s="19" t="s">
+      <c r="F272" s="18" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="273" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C273" s="18">
+      <c r="C273">
         <v>270</v>
       </c>
-      <c r="F273" s="18" t="s">
+      <c r="F273" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="274" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C274" s="18">
+      <c r="C274">
         <v>271</v>
       </c>
-      <c r="F274" s="18" t="s">
+      <c r="F274" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="275" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C275" s="18">
+      <c r="C275">
         <v>272</v>
       </c>
-      <c r="F275" s="19" t="s">
+      <c r="F275" s="18" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="276" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C276" s="18">
+      <c r="C276">
         <v>273</v>
       </c>
-      <c r="F276" s="19" t="s">
+      <c r="F276" s="18" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="277" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C277" s="18">
+      <c r="C277">
         <v>274</v>
       </c>
-      <c r="F277" s="19" t="s">
+      <c r="F277" s="18" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="278" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C278" s="18">
+      <c r="C278">
         <v>275</v>
       </c>
-      <c r="F278" s="18" t="s">
+      <c r="F278" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="279" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C279" s="18">
+      <c r="C279">
         <v>276</v>
       </c>
-      <c r="F279" s="18" t="s">
+      <c r="F279" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="280" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C280" s="18">
+      <c r="C280">
         <v>277</v>
       </c>
-      <c r="F280" s="18" t="s">
+      <c r="F280" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="281" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C281" s="18">
+      <c r="C281">
         <v>278</v>
       </c>
-      <c r="F281" s="19" t="s">
+      <c r="F281" s="18" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="282" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C282" s="18">
+      <c r="C282">
         <v>279</v>
       </c>
-      <c r="F282" s="18" t="s">
+      <c r="F282" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="283" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C283" s="18">
+      <c r="C283">
         <v>280</v>
       </c>
-      <c r="F283" s="18" t="s">
+      <c r="F283" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="284" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C284" s="18">
+      <c r="C284">
         <v>281</v>
       </c>
-      <c r="F284" s="18" t="s">
+      <c r="F284" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="285" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C285" s="18">
+      <c r="C285">
         <v>282</v>
       </c>
-      <c r="F285" s="18" t="s">
+      <c r="F285" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="286" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C286" s="18">
+      <c r="C286">
         <v>283</v>
       </c>
-      <c r="F286" s="19" t="s">
+      <c r="F286" s="18" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="287" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C287" s="18">
+      <c r="C287">
         <v>284</v>
       </c>
-      <c r="F287" s="18" t="s">
+      <c r="F287" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="288" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C288" s="18">
+      <c r="C288">
         <v>285</v>
       </c>
-      <c r="F288" s="18" t="s">
+      <c r="F288" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="289" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C289" s="18">
+      <c r="C289">
         <v>286</v>
       </c>
-      <c r="F289" s="18" t="s">
+      <c r="F289" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="290" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C290" s="18">
+      <c r="C290">
         <v>287</v>
       </c>
-      <c r="F290" s="18" t="s">
+      <c r="F290" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="291" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C291" s="18">
+      <c r="C291">
         <v>288</v>
       </c>
-      <c r="F291" s="18" t="s">
+      <c r="F291" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="292" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C292" s="18">
+      <c r="C292">
         <v>289</v>
       </c>
-      <c r="F292" s="18" t="s">
+      <c r="F292" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="293" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C293" s="18">
+      <c r="C293">
         <v>290</v>
       </c>
-      <c r="F293" s="19" t="s">
+      <c r="F293" s="18" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="294" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C294" s="18">
+      <c r="C294">
         <v>291</v>
       </c>
-      <c r="F294" s="19" t="s">
+      <c r="F294" s="18" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="295" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C295" s="18">
+      <c r="C295">
         <v>292</v>
       </c>
-      <c r="F295" s="19" t="s">
+      <c r="F295" s="18" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="296" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C296" s="18">
+      <c r="C296">
         <v>293</v>
       </c>
-      <c r="F296" s="18" t="s">
+      <c r="F296" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="297" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C297" s="18">
+      <c r="C297">
         <v>294</v>
       </c>
-      <c r="F297" s="18" t="s">
+      <c r="F297" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="298" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C298" s="18">
+      <c r="C298">
         <v>295</v>
       </c>
-      <c r="F298" s="19" t="s">
+      <c r="F298" s="18" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="299" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C299" s="18">
+      <c r="C299">
         <v>296</v>
       </c>
-      <c r="F299" s="19" t="s">
+      <c r="F299" s="18" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="300" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C300" s="18">
+      <c r="C300">
         <v>297</v>
       </c>
-      <c r="F300" s="18" t="s">
+      <c r="F300" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="301" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C301" s="18">
+      <c r="C301">
         <v>298</v>
       </c>
-      <c r="F301" s="18" t="s">
+      <c r="F301" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="302" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C302" s="18">
+      <c r="C302">
         <v>299</v>
       </c>
-      <c r="F302" s="18" t="s">
+      <c r="F302" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="303" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C303" s="18">
+      <c r="C303">
         <v>300</v>
       </c>
-      <c r="F303" s="18" t="s">
+      <c r="F303" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="304" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C304" s="18">
+      <c r="C304">
         <v>301</v>
       </c>
-      <c r="F304" s="18" t="s">
+      <c r="F304" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="305" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C305" s="18">
+      <c r="C305">
         <v>302</v>
       </c>
-      <c r="F305" s="18" t="s">
+      <c r="F305" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="306" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C306" s="18">
+      <c r="C306">
         <v>303</v>
       </c>
-      <c r="F306" s="18" t="s">
+      <c r="F306" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="307" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C307" s="18">
+      <c r="C307">
         <v>304</v>
       </c>
-      <c r="F307" s="19" t="s">
+      <c r="F307" s="18" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="308" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C308" s="18">
+      <c r="C308">
         <v>305</v>
       </c>
-      <c r="F308" s="18" t="s">
+      <c r="F308" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="309" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C309" s="18">
+      <c r="C309">
         <v>306</v>
       </c>
-      <c r="F309" s="18" t="s">
+      <c r="F309" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="310" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C310" s="18">
+      <c r="C310">
         <v>307</v>
       </c>
-      <c r="F310" s="18" t="s">
+      <c r="F310" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="311" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C311" s="18">
+      <c r="C311">
         <v>308</v>
       </c>
-      <c r="F311" s="18" t="s">
+      <c r="F311" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="312" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C312" s="18">
+      <c r="C312">
         <v>309</v>
       </c>
-      <c r="F312" s="19" t="s">
+      <c r="F312" s="18" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="313" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C313" s="18">
+      <c r="C313">
         <v>310</v>
       </c>
-      <c r="F313" s="19" t="s">
+      <c r="F313" s="18" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="314" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C314" s="18">
+      <c r="C314">
         <v>311</v>
       </c>
-      <c r="F314" s="19" t="s">
+      <c r="F314" s="18" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="315" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C315" s="18">
+      <c r="C315">
         <v>312</v>
       </c>
-      <c r="F315" s="19" t="s">
+      <c r="F315" s="18" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="316" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C316" s="18">
+      <c r="C316">
         <v>313</v>
       </c>
-      <c r="F316" s="19" t="s">
+      <c r="F316" s="18" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="317" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C317" s="18">
+      <c r="C317">
         <v>314</v>
       </c>
-      <c r="F317" s="19" t="s">
+      <c r="F317" s="18" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="318" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C318" s="18">
+      <c r="C318">
         <v>315</v>
       </c>
-      <c r="F318" s="19" t="s">
+      <c r="F318" s="18" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="319" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C319" s="18">
+      <c r="C319">
         <v>316</v>
       </c>
-      <c r="F319" s="19" t="s">
+      <c r="F319" s="18" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="320" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C320" s="18">
+      <c r="C320">
         <v>317</v>
       </c>
-      <c r="F320" s="18" t="s">
+      <c r="F320" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="321" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C321" s="18">
+      <c r="C321">
         <v>318</v>
       </c>
-      <c r="F321" s="18" t="s">
+      <c r="F321" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="322" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C322" s="18">
+      <c r="C322">
         <v>319</v>
       </c>
-      <c r="F322" s="18" t="s">
+      <c r="F322" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="323" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C323" s="18">
+      <c r="C323">
         <v>320</v>
       </c>
-      <c r="F323" s="18" t="s">
+      <c r="F323" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="324" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C324" s="18">
+      <c r="C324">
         <v>321</v>
       </c>
-      <c r="F324" s="18" t="s">
+      <c r="F324" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="325" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C325" s="18">
+      <c r="C325">
         <v>322</v>
       </c>
-      <c r="F325" s="18" t="s">
+      <c r="F325" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="326" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C326" s="18">
+      <c r="C326">
         <v>323</v>
       </c>
-      <c r="F326" s="18" t="s">
+      <c r="F326" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="327" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C327" s="18">
+      <c r="C327">
         <v>324</v>
       </c>
-      <c r="F327" s="18" t="s">
+      <c r="F327" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="328" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C328" s="18">
+      <c r="C328">
         <v>325</v>
       </c>
-      <c r="F328" s="18" t="s">
+      <c r="F328" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="329" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C329" s="18">
+      <c r="C329">
         <v>326</v>
       </c>
-      <c r="F329" s="18" t="s">
+      <c r="F329" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="330" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C330" s="18">
+      <c r="C330">
         <v>327</v>
       </c>
-      <c r="F330" s="18" t="s">
+      <c r="F330" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="331" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C331" s="18">
+      <c r="C331">
         <v>328</v>
       </c>
-      <c r="F331" s="18" t="s">
+      <c r="F331" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="332" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C332" s="18">
+      <c r="C332">
         <v>329</v>
       </c>
-      <c r="F332" s="18" t="s">
+      <c r="F332" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="333" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C333" s="18">
+      <c r="C333">
         <v>330</v>
       </c>
-      <c r="F333" s="18" t="s">
+      <c r="F333" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="334" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C334" s="18">
+      <c r="C334">
         <v>331</v>
       </c>
-      <c r="F334" s="18" t="s">
+      <c r="F334" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="335" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C335" s="18">
+      <c r="C335">
         <v>332</v>
       </c>
-      <c r="F335" s="18" t="s">
+      <c r="F335" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="336" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C336" s="18">
+      <c r="C336">
         <v>333</v>
       </c>
-      <c r="F336" s="18" t="s">
+      <c r="F336" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="337" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C337" s="18">
+      <c r="C337">
         <v>334</v>
       </c>
-      <c r="F337" s="18" t="s">
+      <c r="F337" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="338" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C338" s="18">
+      <c r="C338">
         <v>335</v>
       </c>
-      <c r="F338" s="18" t="s">
+      <c r="F338" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="339" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C339" s="18">
+      <c r="C339">
         <v>336</v>
       </c>
-      <c r="F339" s="18" t="s">
+      <c r="F339" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="340" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C340" s="18">
+      <c r="C340">
         <v>337</v>
       </c>
-      <c r="F340" s="18" t="s">
+      <c r="F340" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="341" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C341" s="18">
+      <c r="C341">
         <v>338</v>
       </c>
-      <c r="F341" s="19" t="s">
+      <c r="F341" s="18" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="342" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C342" s="18">
+      <c r="C342">
         <v>339</v>
       </c>
-      <c r="F342" s="19" t="s">
+      <c r="F342" s="18" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="343" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C343" s="18">
+      <c r="C343">
         <v>340</v>
       </c>
-      <c r="F343" s="19" t="s">
+      <c r="F343" s="18" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="344" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C344" s="18">
+      <c r="C344">
         <v>341</v>
       </c>
-      <c r="F344" s="18" t="s">
+      <c r="F344" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="345" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C345" s="18">
+      <c r="C345">
         <v>342</v>
       </c>
-      <c r="F345" s="19" t="s">
+      <c r="F345" s="18" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="346" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C346" s="18">
+      <c r="C346">
         <v>343</v>
       </c>
-      <c r="F346" s="18" t="s">
+      <c r="F346" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="347" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C347" s="18">
+      <c r="C347">
         <v>344</v>
       </c>
-      <c r="F347" s="18" t="s">
+      <c r="F347" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="348" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C348" s="18">
+      <c r="C348">
         <v>345</v>
       </c>
-      <c r="F348" s="18" t="s">
+      <c r="F348" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="349" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C349" s="18">
+      <c r="C349">
         <v>346</v>
       </c>
-      <c r="F349" s="19" t="s">
+      <c r="F349" s="18" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="350" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C350" s="18">
+      <c r="C350">
         <v>347</v>
       </c>
-      <c r="F350" s="19" t="s">
+      <c r="F350" s="18" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="351" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C351" s="18">
+      <c r="C351">
         <v>348</v>
       </c>
-      <c r="F351" s="19" t="s">
+      <c r="F351" s="18" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="352" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C352" s="18">
+      <c r="C352">
         <v>349</v>
       </c>
-      <c r="F352" s="19" t="s">
+      <c r="F352" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="353" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C353" s="18">
+      <c r="C353">
         <v>350</v>
       </c>
-      <c r="F353" s="19" t="s">
+      <c r="F353" s="18" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="354" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C354" s="18">
+      <c r="C354">
         <v>351</v>
       </c>
-      <c r="F354" s="19" t="s">
+      <c r="F354" s="18" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="355" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C355" s="18">
+      <c r="C355">
         <v>352</v>
       </c>
-      <c r="F355" s="18" t="s">
+      <c r="F355" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="356" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C356" s="18">
+      <c r="C356">
         <v>353</v>
       </c>
-      <c r="F356" s="19" t="s">
+      <c r="F356" s="18" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="357" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C357" s="18">
+      <c r="C357">
         <v>354</v>
       </c>
-      <c r="F357" s="18" t="s">
+      <c r="F357" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="358" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C358" s="18">
+      <c r="C358">
         <v>355</v>
       </c>
-      <c r="F358" s="19" t="s">
+      <c r="F358" s="18" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="359" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C359" s="18">
+      <c r="C359">
         <v>356</v>
       </c>
-      <c r="F359" s="18" t="s">
+      <c r="F359" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="360" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C360" s="18">
+      <c r="C360">
         <v>357</v>
       </c>
-      <c r="F360" s="18" t="s">
+      <c r="F360" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="361" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C361" s="18">
+      <c r="C361">
         <v>358</v>
       </c>
-      <c r="F361" s="18" t="s">
+      <c r="F361" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="362" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C362" s="18">
+      <c r="C362">
         <v>359</v>
       </c>
-      <c r="F362" s="19" t="s">
+      <c r="F362" s="18" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="363" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C363" s="18">
+      <c r="C363">
         <v>360</v>
       </c>
-      <c r="F363" s="18" t="s">
+      <c r="F363" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="364" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C364" s="18">
+      <c r="C364">
         <v>361</v>
       </c>
-      <c r="F364" s="19" t="s">
+      <c r="F364" s="18" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="365" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C365" s="18">
+      <c r="C365">
         <v>362</v>
       </c>
-      <c r="F365" s="18" t="s">
+      <c r="F365" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="366" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C366" s="18">
+      <c r="C366">
         <v>363</v>
       </c>
-      <c r="F366" s="18" t="s">
+      <c r="F366" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="367" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C367" s="18">
+      <c r="C367">
         <v>364</v>
       </c>
-      <c r="F367" s="18" t="s">
+      <c r="F367" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="368" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C368" s="18">
+      <c r="C368">
         <v>365</v>
       </c>
-      <c r="F368" s="18" t="s">
+      <c r="F368" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="369" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C369" s="18">
+      <c r="C369">
         <v>366</v>
       </c>
-      <c r="F369" s="18" t="s">
+      <c r="F369" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="370" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C370" s="18">
+      <c r="C370">
         <v>367</v>
       </c>
-      <c r="F370" s="18" t="s">
+      <c r="F370" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="371" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C371" s="18">
+      <c r="C371">
         <v>368</v>
       </c>
-      <c r="F371" s="18" t="s">
+      <c r="F371" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="372" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C372" s="18">
+      <c r="C372">
         <v>369</v>
       </c>
-      <c r="F372" s="19" t="s">
+      <c r="F372" s="18" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="373" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C373" s="18">
+      <c r="C373">
         <v>370</v>
       </c>
-      <c r="F373" s="19" t="s">
+      <c r="F373" s="18" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="374" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C374" s="18">
+      <c r="C374">
         <v>371</v>
       </c>
-      <c r="F374" s="19" t="s">
+      <c r="F374" s="18" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="375" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C375" s="18">
+      <c r="C375">
         <v>372</v>
       </c>
-      <c r="F375" s="18" t="s">
+      <c r="F375" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="376" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C376" s="18">
+      <c r="C376">
         <v>373</v>
       </c>
-      <c r="F376" s="18" t="s">
+      <c r="F376" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="377" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C377" s="18">
+      <c r="C377">
         <v>374</v>
       </c>
-      <c r="F377" s="18" t="s">
+      <c r="F377" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="378" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C378" s="18">
+      <c r="C378">
         <v>375</v>
       </c>
-      <c r="F378" s="18" t="s">
+      <c r="F378" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="379" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C379" s="18">
+      <c r="C379">
         <v>376</v>
       </c>
-      <c r="F379" s="18" t="s">
+      <c r="F379" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="380" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C380" s="18">
+      <c r="C380">
         <v>377</v>
       </c>
-      <c r="F380" s="18" t="s">
+      <c r="F380" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="381" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C381" s="18">
+      <c r="C381">
         <v>378</v>
       </c>
-      <c r="F381" s="19" t="s">
+      <c r="F381" s="18" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="382" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C382" s="18">
+      <c r="C382">
         <v>379</v>
       </c>
-      <c r="F382" s="19" t="s">
+      <c r="F382" s="18" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="383" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C383" s="18">
+      <c r="C383">
         <v>380</v>
       </c>
-      <c r="F383" s="18" t="s">
+      <c r="F383" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="384" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C384" s="18">
+      <c r="C384">
         <v>381</v>
       </c>
-      <c r="F384" s="19" t="s">
+      <c r="F384" s="18" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="385" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C385" s="18">
+      <c r="C385">
         <v>382</v>
       </c>
-      <c r="F385" s="19" t="s">
+      <c r="F385" s="18" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="386" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C386" s="18">
+      <c r="C386">
         <v>383</v>
       </c>
-      <c r="F386" s="19" t="s">
+      <c r="F386" s="18" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="387" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C387" s="18">
+      <c r="C387">
         <v>384</v>
       </c>
-      <c r="F387" s="19" t="s">
+      <c r="F387" s="18" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="388" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C388" s="18">
+      <c r="C388">
         <v>385</v>
       </c>
-      <c r="F388" s="19" t="s">
+      <c r="F388" s="18" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="389" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C389" s="18">
+      <c r="C389">
         <v>386</v>
       </c>
-      <c r="F389" s="19" t="s">
+      <c r="F389" s="18" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="390" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C390" s="18">
+      <c r="C390">
         <v>387</v>
       </c>
-      <c r="F390" s="19" t="s">
+      <c r="F390" s="18" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="391" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C391" s="18">
+      <c r="C391">
         <v>388</v>
       </c>
-      <c r="F391" s="18" t="s">
+      <c r="F391" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="392" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C392" s="18">
+      <c r="C392">
         <v>389</v>
       </c>
-      <c r="F392" s="18" t="s">
+      <c r="F392" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="393" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C393" s="18">
+      <c r="C393">
         <v>390</v>
       </c>
-      <c r="F393" s="19" t="s">
+      <c r="F393" s="18" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="394" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C394" s="18">
+      <c r="C394">
         <v>391</v>
       </c>
-      <c r="F394" s="19" t="s">
+      <c r="F394" s="18" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="395" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C395" s="18">
+      <c r="C395">
         <v>392</v>
       </c>
-      <c r="F395" s="19" t="s">
+      <c r="F395" s="18" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="396" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C396" s="18">
+      <c r="C396">
         <v>393</v>
       </c>
-      <c r="F396" s="19" t="s">
+      <c r="F396" s="18" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="397" spans="3:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C397" s="18">
+      <c r="C397">
         <v>394</v>
       </c>
     </row>
     <row r="398" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C398" s="18">
+      <c r="C398">
         <v>396</v>
       </c>
     </row>
     <row r="399" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C399" s="18">
+      <c r="C399">
         <v>397</v>
       </c>
     </row>
     <row r="400" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C400" s="18">
+      <c r="C400">
         <v>398</v>
       </c>
     </row>
     <row r="401" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C401" s="18">
+      <c r="C401">
         <v>399</v>
       </c>
     </row>
     <row r="402" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C402" s="18">
+      <c r="C402">
         <v>400</v>
       </c>
     </row>
